--- a/xlsx/HipHop for PHP_intext.xlsx
+++ b/xlsx/HipHop for PHP_intext.xlsx
@@ -29,13 +29,13 @@
     <t>嘻哈</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_HipHop for PHP</t>
+    <t>政策_政策_维基百科_HipHop for PHP</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>軟件開發</t>
+    <t>软件开发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Facebook</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%93%E5%BA%93_(%E7%89%88%E6%9C%AC%E6%8E%A7%E5%88%B6)</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>虛擬機器</t>
+    <t>虚拟机器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B3%E6%99%82%E7%B7%A8%E8%AD%AF</t>
   </si>
   <si>
-    <t>即時編譯</t>
+    <t>即时编译</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%A2%BC</t>
   </si>
   <si>
-    <t>機器碼</t>
+    <t>机器码</t>
   </si>
   <si>
     <t>https://github.com/facebook/hiphop-php/wiki/</t>
